--- a/Jeux de donnees/SFCC/NewAccount/jdd-New-account.xlsx
+++ b/Jeux de donnees/SFCC/NewAccount/jdd-New-account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_ramos-izquierdo_groupeonepoint_com/Documents/Bureau/Clarins/Outils/clarins_auto_uat_ihm/Jeux de donnees/SFCC/NewAccount/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="518" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54885E4C-F164-48C0-9AD9-CB39117F214E}"/>
+  <xr:revisionPtr revIDLastSave="529" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71D70627-F1FE-4B0E-B400-8F8D2A0C1866}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="36">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -86,18 +86,12 @@
     <t>CHE</t>
   </si>
   <si>
-    <t>BNL</t>
-  </si>
-  <si>
     <t>${emailOption}</t>
   </si>
   <si>
     <t>${isLoyaltyMember}</t>
   </si>
   <si>
-    <t>${regions}</t>
-  </si>
-  <si>
     <t>BEL</t>
   </si>
   <si>
@@ -149,7 +143,7 @@
     <t>Impossible de passer la validation de création à cause du captcha</t>
   </si>
   <si>
-    <t>Demande parfois à se reloguer car on revient sur l'url FRA</t>
+    <t xml:space="preserve">Incident car redirection sur URL FRA </t>
   </si>
 </sst>
 </file>
@@ -278,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -302,9 +296,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -709,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC4A3E-ED2A-A240-8C79-297922065A66}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="18"/>
@@ -728,13 +719,12 @@
     <col min="9" max="9" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="80.296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.796875" style="1"/>
+    <col min="12" max="12" width="23.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="80.296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="12" customFormat="1" ht="19.05" customHeight="1">
+    <row r="1" spans="1:13" s="11" customFormat="1" ht="19.05" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -760,27 +750,24 @@
         <v>1</v>
       </c>
       <c r="I1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>18</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="21">
+      <c r="A2" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="21">
-      <c r="A2" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
@@ -812,15 +799,14 @@
       <c r="K2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="7"/>
+      <c r="L2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="21">
+    <row r="3" spans="1:13" ht="21">
       <c r="A3" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
@@ -852,20 +838,19 @@
       <c r="K3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="M3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="21">
+    <row r="4" spans="1:13" ht="21">
       <c r="A4" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
@@ -894,18 +879,17 @@
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:14" ht="21">
+    <row r="5" spans="1:13" ht="21">
       <c r="A5" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
@@ -932,17 +916,16 @@
         <v>8</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:14" ht="21">
+    <row r="6" spans="1:13" ht="21">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
@@ -974,20 +957,19 @@
       <c r="K6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="M6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="21">
+    <row r="7" spans="1:13" ht="21">
       <c r="A7" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>6</v>
@@ -1014,21 +996,18 @@
         <v>8</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="21">
+    <row r="8" spans="1:13" ht="21">
       <c r="A8" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>9</v>
@@ -1058,24 +1037,21 @@
         <v>8</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>29</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="21">
+    <row r="9" spans="1:13" ht="21">
       <c r="A9" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>6</v>
@@ -1102,18 +1078,15 @@
         <v>8</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="M9" s="7"/>
     </row>
-    <row r="13" spans="1:14" ht="17.399999999999999">
-      <c r="N13" s="13"/>
+    <row r="13" spans="1:13" ht="17.399999999999999">
+      <c r="M13" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:J9">
@@ -1141,7 +1114,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="N3" r:id="rId1" display="https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsus-Site" xr:uid="{192CDE7C-4B7F-B146-A980-7F3F6489C6A4}"/>
+    <hyperlink ref="M3" r:id="rId1" display="https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsus-Site" xr:uid="{192CDE7C-4B7F-B146-A980-7F3F6489C6A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
